--- a/py_tian05_tennis/washed_tennis.xlsx
+++ b/py_tian05_tennis/washed_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AT14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,307 +638,309 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>赤羽，河岸A面</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>赤羽，河岸B面</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>赤羽，河岸C面</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>赤羽，河岸D面</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>赤羽，河岸E面</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>16:00~18:00</t>
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>滝野川A面</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>滝野川B面</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>滝野川C面</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>18:30~20:30</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>18:30~20:30</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>06:00~08:00</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>08:00~10:00</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>10:00~12:00</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>12:00~14:00</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>14:00~16:00</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>16:00~18:00</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>08:00~10:00</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>10:00~12:00</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>12:00~14:00</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>14:00~16:00</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>16:00~18:00</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>18:30~20:30</t>
         </is>
